--- a/Doc/JDB/Quentin.xlsx
+++ b/Doc/JDB/Quentin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -73,6 +73,27 @@
   </si>
   <si>
     <t>Lecture de documentation sur les quizz</t>
+  </si>
+  <si>
+    <t>Discussion avec Sasha sur le travail à fournir aujourd'hui</t>
+  </si>
+  <si>
+    <t>Analyse d'un site QCM</t>
+  </si>
+  <si>
+    <t>Semaine 2</t>
+  </si>
+  <si>
+    <t>Analyse d'un autre site de QCM</t>
+  </si>
+  <si>
+    <t>Githbub + Journal de bord</t>
+  </si>
+  <si>
+    <t>qcmweb.fr</t>
+  </si>
+  <si>
+    <t>targetweb.fr</t>
   </si>
 </sst>
 </file>
@@ -118,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -267,32 +288,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -316,6 +341,39 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,29 +386,36 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,88 +713,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19">
-        <f>SUM(B8:B13)</f>
-        <v>9.3749999999999986E-2</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="13">
+        <f>SUM(B8:B15)</f>
+        <v>0.15625</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="28">
         <v>43444</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
@@ -737,79 +802,176 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28">
+      <c r="A9" s="29"/>
+      <c r="B9" s="37">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="29">
+      <c r="A10" s="29"/>
+      <c r="B10" s="38">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29">
+      <c r="A11" s="32"/>
+      <c r="B11" s="39">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="26"/>
+      <c r="A12" s="29">
+        <v>43446</v>
+      </c>
+      <c r="B12" s="35">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="35">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="29"/>
+      <c r="B14" s="35">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="35">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="13">
+        <f>SUM(B17:B24)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>43444</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
         <v>43446</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="15"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="15"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="15"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="15"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="13">
+        <f>SUM(B26:B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/JDB/Quentin.xlsx
+++ b/Doc/JDB/Quentin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>targetweb.fr</t>
+  </si>
+  <si>
+    <t>Semaine 3</t>
+  </si>
+  <si>
+    <t>Recherche et analyse de template</t>
+  </si>
+  <si>
+    <t>Prise de matériel pour le moonboard et création de celui-ci</t>
+  </si>
+  <si>
+    <t>Maquette, page web crée</t>
   </si>
 </sst>
 </file>
@@ -356,46 +368,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -416,6 +392,42 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,11 +725,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -726,9 +738,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,15 +791,15 @@
         <f>SUM(B8:B15)</f>
         <v>0.15625</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>43444</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="24">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -803,7 +815,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
-      <c r="B9" s="37">
+      <c r="B9" s="25">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -814,7 +826,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="38">
+      <c r="B10" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -824,21 +836,21 @@
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="39">
+      <c r="A11" s="30"/>
+      <c r="B11" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>43446</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -848,7 +860,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="35">
+      <c r="B13" s="23">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -860,7 +872,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="35">
+      <c r="B14" s="23">
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -872,7 +884,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
-      <c r="B15" s="35">
+      <c r="B15" s="23">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -888,9 +900,9 @@
         <f>SUM(B17:B24)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
@@ -916,52 +928,85 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>43446</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="15"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="15"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="15"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="15"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B25" s="13">
         <f>SUM(B26:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>43472</v>
+      </c>
+      <c r="B26" s="19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="C25:E25"/>
